--- a/diff-finder/config.xlsx
+++ b/diff-finder/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\text-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinhpn\Documents\GitHub\excel-tools\diff-finder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C4D1E8-6BC5-45E9-94B5-776CE6ED76BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF03E24E-83B4-4EF4-BD79-CBFFD8C4C2EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,43 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Path</t>
+    <t>File 1</t>
   </si>
   <si>
-    <t>C:\excel-files</t>
+    <t>File 2</t>
   </si>
   <si>
-    <t>Search For</t>
+    <t>C:\excel-files\diff_1.xlsx</t>
   </si>
   <si>
-    <t>tokyo</t>
-  </si>
-  <si>
-    <t>kanazawa</t>
-  </si>
-  <si>
-    <t>chiba</t>
-  </si>
-  <si>
-    <t>toyama</t>
+    <t>C:\excel-files\diff_2.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -93,10 +77,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,11 +396,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -424,40 +407,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
